--- a/data/trans_camb/P38C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Estudios-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 4,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 2,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 2,3</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,29%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 4,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 2,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 2,56</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,15</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,54; -0,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 0,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; -0,72</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,82%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,95; -0,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 0,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,85; -0,88</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 7,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 8,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 6,86</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 9,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 10,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 8,58</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,99; -0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 0,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; -0,21</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,04%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,58; -0,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 1,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; -0,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Estudios-trans_camb.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,2</t>
+          <t>-2,68; 4,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 2,62</t>
+          <t>-2,43; 2,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,3</t>
+          <t>-1,58; 2,62</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,85</t>
+          <t>-2,95; 5,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 2,85</t>
+          <t>-2,59; 3,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 2,56</t>
+          <t>-1,74; 2,9</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-6,33</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -0,74</t>
+          <t>-28,33; -0,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 0,69</t>
+          <t>-11,72; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -0,72</t>
+          <t>-19,56; -0,66</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,21%</t>
+          <t>-12,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,82%</t>
+          <t>-7,68%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,95; -0,95</t>
+          <t>-35,96; -1,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 0,84</t>
+          <t>-13,57; 2,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -0,88</t>
+          <t>-23,49; -0,8</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,7</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 7,29</t>
+          <t>-3,88; 6,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,81</t>
+          <t>1,45; 9,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,86</t>
+          <t>0,46; 6,96</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 9,18</t>
+          <t>-4,73; 8,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,8</t>
+          <t>1,68; 11,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,58</t>
+          <t>0,54; 8,56</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-3,88</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -0,32</t>
+          <t>-23,43; -0,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,88</t>
+          <t>-7,75; 1,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; -0,21</t>
+          <t>-13,67; -0,28</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>-8,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,04%</t>
+          <t>-4,59%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,58; -0,41</t>
+          <t>-28,73; -0,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,02</t>
+          <t>-8,83; 1,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,25</t>
+          <t>-16,16; -0,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Estudios-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 4,55</t>
+          <t>-2,74; 4,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,96</t>
+          <t>-3,08; 2,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,62</t>
+          <t>-1,72; 2,74</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 5,28</t>
+          <t>-3,05; 4,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,24</t>
+          <t>-3,27; 2,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,9</t>
+          <t>-1,86; 3,08</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,33; -0,78</t>
+          <t>-31,22; -1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 1,8</t>
+          <t>-10,68; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,56; -0,66</t>
+          <t>-18,85; -0,71</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,96; -1,02</t>
+          <t>-39,1; -1,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 2,09</t>
+          <t>-12,36; 2,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -0,8</t>
+          <t>-22,91; -0,85</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,87</t>
+          <t>-3,95; 7,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 9,24</t>
+          <t>1,3; 9,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 6,96</t>
+          <t>0,53; 7,09</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 8,79</t>
+          <t>-5,01; 9,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 11,36</t>
+          <t>1,51; 11,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 8,56</t>
+          <t>0,64; 8,85</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,43; -0,4</t>
+          <t>-23,34; -0,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 1,44</t>
+          <t>-7,33; 1,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,67; -0,28</t>
+          <t>-13,89; -0,05</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,73; -0,49</t>
+          <t>-28,81; -0,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 1,65</t>
+          <t>-8,41; 1,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -0,36</t>
+          <t>-16,35; -0,06</t>
         </is>
       </c>
     </row>
